--- a/extras/TestData_P4_C5_002.1.xlsx
+++ b/extras/TestData_P4_C5_002.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ablack/darwin/PregnancyIdentifier/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068157D4-18D5-7640-BC3A-1EEE9B15F57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866EE890-7458-3A49-8869-BA74ED024A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4220" windowWidth="34200" windowHeight="12660" activeTab="4" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
+    <workbookView xWindow="0" yWindow="4220" windowWidth="34200" windowHeight="12660" activeTab="2" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>condition_source_concept_id</t>
   </si>
   <si>
-    <t>condition</t>
-  </si>
-  <si>
     <t>Gestation period, 21 weeks</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>procedure_occurrence_id</t>
+  </si>
+  <si>
+    <t>condition_source_value</t>
   </si>
 </sst>
 </file>
@@ -1698,40 +1698,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" customHeight="1">
@@ -1748,10 +1748,10 @@
         <v>44088</v>
       </c>
       <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
         <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2" si="0">D2-C2</f>
@@ -1761,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>20</v>
@@ -1790,10 +1790,10 @@
         <v>44088</v>
       </c>
       <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
         <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3" si="1">D3-C3</f>
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>20</v>
@@ -1832,10 +1832,10 @@
         <v>44088</v>
       </c>
       <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
       </c>
       <c r="G4">
         <f>D4-C4</f>
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4">
         <v>20</v>
@@ -1874,10 +1874,10 @@
         <v>44088</v>
       </c>
       <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
         <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>88</v>
       </c>
       <c r="G5">
         <f>D5-C5</f>
@@ -1887,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <v>20</v>
@@ -1916,10 +1916,10 @@
         <v>44088</v>
       </c>
       <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
         <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
       </c>
       <c r="G6">
         <f>D6-C6</f>
@@ -1929,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6">
         <v>20</v>
@@ -1958,10 +1958,10 @@
         <v>44088</v>
       </c>
       <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
         <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
       </c>
       <c r="G7">
         <f>D7-C7</f>
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7">
         <v>20</v>
@@ -2014,55 +2014,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>102</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2796,8 +2796,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2838,7 +2838,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1">
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="5" customFormat="1">
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="23" customFormat="1">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="23" customFormat="1">
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="23" customFormat="1">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="5" customFormat="1">
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14" customHeight="1">
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14" customHeight="1">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="14" customHeight="1">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14" customHeight="1">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="17">
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="17">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="17">
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="5" customFormat="1" ht="17">
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="17">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="17">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="5" customFormat="1" ht="17">
@@ -3606,7 +3606,7 @@
         <v>4094910</v>
       </c>
       <c r="D29" s="28">
-        <v>45255</v>
+        <v>44525</v>
       </c>
       <c r="E29" s="3">
         <v>32817</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="17">
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="17">
@@ -3655,7 +3655,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="27">
-        <v>437611</v>
+        <v>4081422</v>
       </c>
       <c r="D31" s="28">
         <v>44237</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="5" customFormat="1" ht="17">
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17">
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="17">
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17">
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17">
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="5" customFormat="1" ht="17">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17">
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17">
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="5" customFormat="1" ht="17">
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="5" customFormat="1">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="5" customFormat="1">
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="5" customFormat="1" ht="17">
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17">
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="5" customFormat="1" ht="17">
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4413,22 +4413,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4448,7 +4448,7 @@
         <v>32817</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4463,7 +4463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A45E38-DECC-8A44-B5EF-C13538335272}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4474,22 +4474,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
-        <v>108</v>
-      </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4509,7 +4509,7 @@
         <v>32817</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4529,7 +4529,7 @@
         <v>32817</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4549,7 +4549,7 @@
         <v>32817</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1">
@@ -4569,7 +4569,7 @@
         <v>32817</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4589,7 +4589,7 @@
         <v>32817</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4634,64 +4634,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4711,13 +4711,13 @@
         <v>42292.833333333336</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>32817</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>68</v>
@@ -4735,13 +4735,13 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>220181</v>
@@ -4750,7 +4750,7 @@
         <v>2000030007</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4770,13 +4770,13 @@
         <v>42221.236111111109</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>32856</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>22</v>
@@ -4794,13 +4794,13 @@
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>50887</v>
@@ -4826,16 +4826,16 @@
         <v>42321.90902777778</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>32856</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4844,19 +4844,19 @@
         <v>9557</v>
       </c>
       <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>50971</v>
@@ -4865,10 +4865,10 @@
         <v>3023103</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4888,16 +4888,16 @@
         <v>42062.625</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>32817</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4912,13 +4912,13 @@
         <v>99</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5">
         <v>220615</v>
@@ -4927,7 +4927,7 @@
         <v>2000030068</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4947,13 +4947,13 @@
         <v>42266.875</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>32817</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -4971,13 +4971,13 @@
         <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>220074</v>
@@ -4986,7 +4986,7 @@
         <v>2000030044</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -5006,16 +5006,16 @@
         <v>42049.977777777778</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>32856</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5030,13 +5030,13 @@
         <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7">
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7">
         <v>51221</v>
@@ -5045,10 +5045,10 @@
         <v>3023314</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -5068,13 +5068,13 @@
         <v>42321.334722222222</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>32817</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <v>70</v>
@@ -5092,13 +5092,13 @@
         <v>77</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>220181</v>
@@ -5107,7 +5107,7 @@
         <v>2000030007</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -5127,13 +5127,13 @@
         <v>42091.333333333336</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>32817</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -5151,13 +5151,13 @@
         <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>224056</v>
@@ -5183,13 +5183,13 @@
         <v>42193.833333333336</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>32817</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>111</v>
@@ -5207,13 +5207,13 @@
         <v>99</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10">
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q10">
         <v>224005</v>
@@ -5222,7 +5222,7 @@
         <v>2000030076</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -5242,7 +5242,7 @@
         <v>32817</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="5" customFormat="1">
@@ -5291,28 +5291,28 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5764,19 +5764,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6051,40 +6051,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6095,7 +6095,7 @@
         <v>798874</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>8576</v>
@@ -6122,7 +6122,7 @@
         <v>401768</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6133,7 +6133,7 @@
         <v>723013</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>8576</v>
@@ -6160,7 +6160,7 @@
         <v>401768</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12">

--- a/extras/TestData_P4_C5_002.1.xlsx
+++ b/extras/TestData_P4_C5_002.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ablack/darwin/PregnancyIdentifier/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866EE890-7458-3A49-8869-BA74ED024A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBBBE2-0275-014F-85A7-BEDFDF003B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4220" windowWidth="34200" windowHeight="12660" activeTab="2" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
+    <workbookView xWindow="0" yWindow="4220" windowWidth="34200" windowHeight="12660" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>person_id</t>
   </si>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1C072-644C-1A47-9B0F-C596ED60D337}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2244,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E21BF-3345-8E43-B920-A246747D8F60}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="158" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="158" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -2794,10 +2794,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FAEDB-4FE7-8849-9EBA-5154A838789B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3140,15 +3140,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14" customHeight="1">
+    <row r="13" spans="1:21">
       <c r="A13" s="3">
+        <v>12001</v>
+      </c>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>15</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4244438</v>
+      <c r="C13" s="27">
+        <v>4014295</v>
       </c>
       <c r="D13" s="10">
         <v>43084</v>
@@ -3163,18 +3163,18 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14" customHeight="1">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="12">
-        <v>4185780</v>
+      <c r="C14" s="13">
+        <v>4244438</v>
       </c>
       <c r="D14" s="10">
         <v>43084</v>
@@ -3194,16 +3194,16 @@
     </row>
     <row r="15" spans="1:21" ht="14" customHeight="1">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
       </c>
-      <c r="C15" s="13">
-        <v>435640</v>
+      <c r="C15" s="12">
+        <v>4185780</v>
       </c>
       <c r="D15" s="10">
-        <v>43090</v>
+        <v>43084</v>
       </c>
       <c r="E15" s="3">
         <v>32817</v>
@@ -3215,21 +3215,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14" customHeight="1">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="12">
-        <v>4185780</v>
+      <c r="C16" s="13">
+        <v>435640</v>
       </c>
       <c r="D16" s="10">
-        <v>43235</v>
+        <v>43090</v>
       </c>
       <c r="E16" s="3">
         <v>32817</v>
@@ -3241,72 +3241,59 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" customHeight="1">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
+        <v>4185780</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43235</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
         <v>443213</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>43099</v>
       </c>
-      <c r="E17" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="E18" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" ht="17">
-      <c r="A18" s="3">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
-        <v>21</v>
-      </c>
-      <c r="C18" s="27">
-        <v>4014295</v>
-      </c>
-      <c r="D18" s="28">
-        <v>45207</v>
-      </c>
-      <c r="E18" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>103</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3322,109 +3309,122 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" s="5" customFormat="1" ht="17">
+    <row r="19" spans="1:21" ht="17">
       <c r="A19" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3">
         <v>21</v>
       </c>
       <c r="C19" s="27">
+        <v>4014295</v>
+      </c>
+      <c r="D19" s="28">
+        <v>45207</v>
+      </c>
+      <c r="E19" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" s="5" customFormat="1" ht="17">
+      <c r="A20" s="3">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>21</v>
+      </c>
+      <c r="C20" s="27">
         <v>4094910</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D20" s="28">
         <v>44958</v>
       </c>
-      <c r="E19" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27" t="s">
+      <c r="E20" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17">
-      <c r="A20" s="3">
+    <row r="21" spans="1:21" ht="17">
+      <c r="A21" s="3">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>22</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C21" s="27">
         <v>4014295</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D21" s="28">
         <v>44348</v>
       </c>
-      <c r="E20" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27" t="s">
+      <c r="E21" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="1:21" s="5" customFormat="1" ht="17">
-      <c r="A21" s="3">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" s="5" customFormat="1" ht="17">
+      <c r="A22" s="3">
         <v>24</v>
-      </c>
-      <c r="B21" s="3">
-        <v>23</v>
-      </c>
-      <c r="C21" s="27">
-        <v>4094910</v>
-      </c>
-      <c r="D21" s="28">
-        <v>44954</v>
-      </c>
-      <c r="E21" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="17">
-      <c r="A22" s="3">
-        <v>25</v>
       </c>
       <c r="B22" s="3">
         <v>23</v>
       </c>
       <c r="C22" s="27">
-        <v>4051642</v>
+        <v>4094910</v>
       </c>
       <c r="D22" s="28">
-        <v>45074</v>
+        <v>44954</v>
       </c>
       <c r="E22" s="3">
         <v>32817</v>
@@ -3436,21 +3436,21 @@
         <v>0</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="17">
       <c r="A23" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>23</v>
       </c>
       <c r="C23" s="27">
-        <v>442558</v>
+        <v>4051642</v>
       </c>
       <c r="D23" s="28">
-        <v>45158</v>
+        <v>45074</v>
       </c>
       <c r="E23" s="3">
         <v>32817</v>
@@ -3462,18 +3462,18 @@
         <v>0</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="17">
       <c r="A24" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
       <c r="C24" s="27">
-        <v>4014454</v>
+        <v>442558</v>
       </c>
       <c r="D24" s="28">
         <v>45158</v>
@@ -3487,74 +3487,74 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="30" t="s">
-        <v>117</v>
+      <c r="H24" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="3">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="27">
+        <v>4014454</v>
+      </c>
+      <c r="D25" s="28">
+        <v>45158</v>
+      </c>
+      <c r="E25" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="3">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>21</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C26" s="12">
         <v>4185780</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D26" s="28">
         <v>45122</v>
       </c>
-      <c r="E25" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="s">
+      <c r="E26" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="5" customFormat="1" ht="17">
-      <c r="A26" s="3">
+    <row r="27" spans="1:21" s="5" customFormat="1" ht="17">
+      <c r="A27" s="3">
         <v>29</v>
-      </c>
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="27">
-        <v>4094910</v>
-      </c>
-      <c r="D26" s="28">
-        <v>44954</v>
-      </c>
-      <c r="E26" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="17">
-      <c r="A27" s="3">
-        <v>30</v>
       </c>
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="3">
-        <v>4132434</v>
+      <c r="C27" s="27">
+        <v>4094910</v>
       </c>
       <c r="D27" s="28">
-        <v>45000</v>
+        <v>44954</v>
       </c>
       <c r="E27" s="3">
         <v>32817</v>
@@ -3566,18 +3566,18 @@
         <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="17">
       <c r="A28" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3">
         <v>24</v>
       </c>
-      <c r="C28" s="27">
-        <v>437611</v>
+      <c r="C28" s="3">
+        <v>4132434</v>
       </c>
       <c r="D28" s="28">
         <v>45000</v>
@@ -3592,47 +3592,47 @@
         <v>0</v>
       </c>
       <c r="H28" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="17">
+      <c r="A29" s="3">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
+      <c r="C29" s="27">
+        <v>437611</v>
+      </c>
+      <c r="D29" s="28">
+        <v>45000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="5" customFormat="1" ht="17">
-      <c r="A29" s="3">
+    <row r="30" spans="1:21" s="5" customFormat="1" ht="17">
+      <c r="A30" s="3">
         <v>32</v>
-      </c>
-      <c r="B29" s="3">
-        <v>25</v>
-      </c>
-      <c r="C29" s="27">
-        <v>4094910</v>
-      </c>
-      <c r="D29" s="28">
-        <v>44525</v>
-      </c>
-      <c r="E29" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="17">
-      <c r="A30" s="3">
-        <v>33</v>
       </c>
       <c r="B30" s="3">
         <v>25</v>
       </c>
-      <c r="C30" s="3">
-        <v>4132434</v>
+      <c r="C30" s="27">
+        <v>4094910</v>
       </c>
       <c r="D30" s="28">
-        <v>44237</v>
+        <v>44525</v>
       </c>
       <c r="E30" s="3">
         <v>32817</v>
@@ -3644,18 +3644,18 @@
         <v>0</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="17">
       <c r="A31" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="27">
-        <v>4081422</v>
+      <c r="C31" s="3">
+        <v>4132434</v>
       </c>
       <c r="D31" s="28">
         <v>44237</v>
@@ -3670,47 +3670,47 @@
         <v>0</v>
       </c>
       <c r="H31" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="17">
+      <c r="A32" s="3">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3">
+        <v>25</v>
+      </c>
+      <c r="C32" s="27">
+        <v>4081422</v>
+      </c>
+      <c r="D32" s="28">
+        <v>44237</v>
+      </c>
+      <c r="E32" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="5" customFormat="1" ht="17">
-      <c r="A32" s="3">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="17">
+      <c r="A33" s="3">
         <v>35</v>
-      </c>
-      <c r="B32" s="3">
-        <v>26</v>
-      </c>
-      <c r="C32" s="27">
-        <v>4094910</v>
-      </c>
-      <c r="D32" s="28">
-        <v>45184</v>
-      </c>
-      <c r="E32" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17">
-      <c r="A33" s="3">
-        <v>36</v>
       </c>
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="27">
-        <v>4132434</v>
+        <v>4094910</v>
       </c>
       <c r="D33" s="28">
-        <v>45235</v>
+        <v>45184</v>
       </c>
       <c r="E33" s="3">
         <v>32817</v>
@@ -3722,18 +3722,18 @@
         <v>0</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17">
       <c r="A34" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3">
         <v>26</v>
       </c>
       <c r="C34" s="27">
-        <v>45876808</v>
+        <v>4132434</v>
       </c>
       <c r="D34" s="28">
         <v>45235</v>
@@ -3748,96 +3748,96 @@
         <v>0</v>
       </c>
       <c r="H34" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17">
+      <c r="A35" s="3">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>26</v>
+      </c>
+      <c r="C35" s="27">
+        <v>45876808</v>
+      </c>
+      <c r="D35" s="28">
+        <v>45235</v>
+      </c>
+      <c r="E35" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="17">
-      <c r="A35" s="3">
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="17">
+      <c r="A36" s="3">
         <v>38</v>
-      </c>
-      <c r="B35" s="3">
-        <v>27</v>
-      </c>
-      <c r="C35" s="27">
-        <v>4197245</v>
-      </c>
-      <c r="D35" s="28">
-        <v>44290</v>
-      </c>
-      <c r="E35" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17">
-      <c r="A36" s="3">
-        <v>39</v>
       </c>
       <c r="B36" s="3">
         <v>27</v>
       </c>
       <c r="C36" s="27">
+        <v>4197245</v>
+      </c>
+      <c r="D36" s="28">
+        <v>44290</v>
+      </c>
+      <c r="E36" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17">
+      <c r="A37" s="3">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3">
+        <v>27</v>
+      </c>
+      <c r="C37" s="27">
         <v>4051642</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D37" s="28">
         <v>44346</v>
       </c>
-      <c r="E36" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="27" t="s">
+      <c r="E37" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1">
-      <c r="A37" s="3">
+    <row r="38" spans="1:8" s="5" customFormat="1">
+      <c r="A38" s="3">
         <v>40</v>
-      </c>
-      <c r="B37" s="3">
-        <v>28</v>
-      </c>
-      <c r="C37" s="27">
-        <v>4014295</v>
-      </c>
-      <c r="D37" s="28">
-        <v>45170</v>
-      </c>
-      <c r="E37" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3">
-        <v>41</v>
       </c>
       <c r="B38" s="3">
         <v>28</v>
       </c>
       <c r="C38" s="27">
-        <v>444098</v>
+        <v>4014295</v>
       </c>
       <c r="D38" s="28">
         <v>45170</v>
@@ -3851,22 +3851,22 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="32" t="s">
-        <v>126</v>
+      <c r="H38" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3">
         <v>28</v>
       </c>
       <c r="C39" s="27">
-        <v>4094910</v>
+        <v>444098</v>
       </c>
       <c r="D39" s="28">
-        <v>45219</v>
+        <v>45170</v>
       </c>
       <c r="E39" s="3">
         <v>32817</v>
@@ -3878,21 +3878,21 @@
         <v>0</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="5" customFormat="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3">
         <v>28</v>
       </c>
       <c r="C40" s="27">
-        <v>45876808</v>
+        <v>4094910</v>
       </c>
       <c r="D40" s="28">
-        <v>45270</v>
+        <v>45219</v>
       </c>
       <c r="E40" s="3">
         <v>32817</v>
@@ -3904,18 +3904,18 @@
         <v>0</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="5" customFormat="1">
       <c r="A41" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3">
         <v>28</v>
       </c>
       <c r="C41" s="27">
-        <v>4132434</v>
+        <v>45876808</v>
       </c>
       <c r="D41" s="28">
         <v>45270</v>
@@ -3930,38 +3930,38 @@
         <v>0</v>
       </c>
       <c r="H41" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3">
+        <v>28</v>
+      </c>
+      <c r="C42" s="27">
+        <v>4132434</v>
+      </c>
+      <c r="D42" s="28">
+        <v>45270</v>
+      </c>
+      <c r="E42" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17">
-      <c r="A42" s="3">
+    <row r="43" spans="1:8" ht="17">
+      <c r="A43" s="3">
         <v>45</v>
-      </c>
-      <c r="B42" s="3">
-        <v>29</v>
-      </c>
-      <c r="C42" s="27">
-        <v>4014295</v>
-      </c>
-      <c r="D42" s="28">
-        <v>45206</v>
-      </c>
-      <c r="E42" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" ht="17">
-      <c r="A43" s="3">
-        <v>46</v>
       </c>
       <c r="B43" s="3">
         <v>29</v>
@@ -3970,7 +3970,7 @@
         <v>4014295</v>
       </c>
       <c r="D43" s="28">
-        <v>45209</v>
+        <v>45206</v>
       </c>
       <c r="E43" s="3">
         <v>32817</v>
@@ -3985,15 +3985,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17">
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="17">
       <c r="A44" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3">
         <v>29</v>
       </c>
       <c r="C44" s="27">
-        <v>444098</v>
+        <v>4014295</v>
       </c>
       <c r="D44" s="28">
         <v>45209</v>
@@ -4008,47 +4008,47 @@
         <v>0</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17">
       <c r="A45" s="3">
+        <v>47</v>
+      </c>
+      <c r="B45" s="3">
+        <v>29</v>
+      </c>
+      <c r="C45" s="27">
+        <v>444098</v>
+      </c>
+      <c r="D45" s="28">
+        <v>45209</v>
+      </c>
+      <c r="E45" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17">
+      <c r="A46" s="3">
         <v>48</v>
-      </c>
-      <c r="B45" s="3">
-        <v>30</v>
-      </c>
-      <c r="C45" s="27">
-        <v>45876808</v>
-      </c>
-      <c r="D45" s="28">
-        <v>43405</v>
-      </c>
-      <c r="E45" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="17">
-      <c r="A46" s="3">
-        <v>49</v>
       </c>
       <c r="B46" s="3">
         <v>30</v>
       </c>
       <c r="C46" s="27">
-        <v>4014295</v>
+        <v>45876808</v>
       </c>
       <c r="D46" s="28">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="E46" s="3">
         <v>32817</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="17">
       <c r="A47" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="3">
         <v>30</v>
       </c>
       <c r="C47" s="27">
-        <v>444098</v>
+        <v>4014295</v>
       </c>
       <c r="D47" s="28">
         <v>43435</v>
@@ -4086,47 +4086,47 @@
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17">
+      <c r="A48" s="3">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3">
+        <v>30</v>
+      </c>
+      <c r="C48" s="27">
+        <v>444098</v>
+      </c>
+      <c r="D48" s="28">
+        <v>43435</v>
+      </c>
+      <c r="E48" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3">
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
         <v>51</v>
-      </c>
-      <c r="B48" s="3">
-        <v>31</v>
-      </c>
-      <c r="C48" s="27">
-        <v>4014295</v>
-      </c>
-      <c r="D48" s="28">
-        <v>43405</v>
-      </c>
-      <c r="E48" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="5" customFormat="1">
-      <c r="A49" s="3">
-        <v>52</v>
       </c>
       <c r="B49" s="3">
         <v>31</v>
       </c>
-      <c r="C49" s="13">
-        <v>443213</v>
+      <c r="C49" s="27">
+        <v>4014295</v>
       </c>
       <c r="D49" s="28">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="E49" s="3">
         <v>32817</v>
@@ -4137,19 +4137,19 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="5" customFormat="1">
       <c r="A50" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="3">
         <v>31</v>
       </c>
-      <c r="C50" s="27">
-        <v>444098</v>
+      <c r="C50" s="13">
+        <v>443213</v>
       </c>
       <c r="D50" s="28">
         <v>43435</v>
@@ -4163,48 +4163,48 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="32" t="s">
-        <v>126</v>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3">
+        <v>31</v>
+      </c>
+      <c r="C51" s="27">
+        <v>444098</v>
+      </c>
+      <c r="D51" s="28">
+        <v>43435</v>
+      </c>
+      <c r="E51" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
         <v>54</v>
-      </c>
-      <c r="B51" s="3">
-        <v>32</v>
-      </c>
-      <c r="C51" s="27">
-        <v>4051642</v>
-      </c>
-      <c r="D51" s="28">
-        <v>45078</v>
-      </c>
-      <c r="E51" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="5" customFormat="1">
-      <c r="A52" s="3">
-        <v>55</v>
       </c>
       <c r="B52" s="3">
         <v>32</v>
       </c>
       <c r="C52" s="27">
-        <v>4094910</v>
+        <v>4051642</v>
       </c>
       <c r="D52" s="28">
-        <v>45228</v>
+        <v>45078</v>
       </c>
       <c r="E52" s="3">
         <v>32817</v>
@@ -4215,71 +4215,71 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="5" customFormat="1">
       <c r="A53" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="3">
         <v>32</v>
       </c>
       <c r="C53" s="27">
+        <v>4094910</v>
+      </c>
+      <c r="D53" s="28">
+        <v>45228</v>
+      </c>
+      <c r="E53" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3">
+        <v>32</v>
+      </c>
+      <c r="C54" s="27">
         <v>4197245</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D54" s="28">
         <v>45306</v>
       </c>
-      <c r="E53" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="32" t="s">
+      <c r="E54" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" ht="17">
-      <c r="A54" s="3">
+    <row r="55" spans="1:8" s="5" customFormat="1" ht="17">
+      <c r="A55" s="3">
         <v>57</v>
-      </c>
-      <c r="B54" s="3">
-        <v>33</v>
-      </c>
-      <c r="C54" s="27">
-        <v>4014295</v>
-      </c>
-      <c r="D54" s="28">
-        <v>45108</v>
-      </c>
-      <c r="E54" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3">
-        <v>58</v>
       </c>
       <c r="B55" s="3">
         <v>33</v>
       </c>
       <c r="C55" s="27">
-        <v>4197245</v>
+        <v>4014295</v>
       </c>
       <c r="D55" s="28">
         <v>45108</v>
@@ -4293,48 +4293,48 @@
       <c r="G55" s="3">
         <v>0</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3">
+        <v>33</v>
+      </c>
+      <c r="C56" s="27">
+        <v>4197245</v>
+      </c>
+      <c r="D56" s="28">
+        <v>45108</v>
+      </c>
+      <c r="E56" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="32" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17">
-      <c r="A56" s="3">
-        <v>59</v>
-      </c>
-      <c r="B56" s="3">
-        <v>34</v>
-      </c>
-      <c r="C56" s="27">
-        <v>4094910</v>
-      </c>
-      <c r="D56" s="28">
-        <v>45014</v>
-      </c>
-      <c r="E56" s="3">
-        <v>32817</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17">
       <c r="A57" s="3">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B57" s="3">
         <v>34</v>
       </c>
       <c r="C57" s="27">
-        <v>4014295</v>
+        <v>4094910</v>
       </c>
       <c r="D57" s="28">
-        <v>45280</v>
+        <v>45014</v>
       </c>
       <c r="E57" s="3">
         <v>32817</v>
@@ -4346,18 +4346,18 @@
         <v>0</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" ht="17">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17">
       <c r="A58" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="3">
         <v>34</v>
       </c>
       <c r="C58" s="27">
-        <v>444098</v>
+        <v>4014295</v>
       </c>
       <c r="D58" s="28">
         <v>45280</v>
@@ -4372,6 +4372,32 @@
         <v>0</v>
       </c>
       <c r="H58" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="5" customFormat="1" ht="17">
+      <c r="A59" s="3">
+        <v>65</v>
+      </c>
+      <c r="B59" s="3">
+        <v>34</v>
+      </c>
+      <c r="C59" s="27">
+        <v>444098</v>
+      </c>
+      <c r="D59" s="28">
+        <v>45280</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="27" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4389,8 +4415,8 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H24" r:id="rId1" location="/concept/4014454" display="https://atlas.darwin-eu.org/ - /concept/4014454" xr:uid="{874BD9EA-7709-D44B-8F16-6B0968A01621}"/>
-    <hyperlink ref="H25" r:id="rId2" location="/concept/4185780" display="https://atlas.darwin-eu.org/ - /concept/4185780" xr:uid="{3DA91890-812D-DB45-9C13-5CEAD7D0749F}"/>
+    <hyperlink ref="H25" r:id="rId1" location="/concept/4014454" display="https://atlas.darwin-eu.org/ - /concept/4014454" xr:uid="{874BD9EA-7709-D44B-8F16-6B0968A01621}"/>
+    <hyperlink ref="H26" r:id="rId2" location="/concept/4185780" display="https://atlas.darwin-eu.org/ - /concept/4185780" xr:uid="{3DA91890-812D-DB45-9C13-5CEAD7D0749F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -6381,12 +6407,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E48E57FAF33F44FB5E762D78C70B43B" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffa46df45eb63a91df94189858519904">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f696df8-7461-455e-9bf1-ef56149775f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23f069db652fc0323145f31546307aa2" ns2:_="">
     <xsd:import namespace="2f696df8-7461-455e-9bf1-ef56149775f2"/>
@@ -6524,6 +6544,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1BB2D99-B90A-4F2C-B88E-D2F6417F47F2}">
   <ds:schemaRefs>
@@ -6533,22 +6559,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B74C39-E305-437B-89E5-691639CCCAB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2f696df8-7461-455e-9bf1-ef56149775f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B741E56B-A40C-4308-AE9A-E8A33FDA316C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6564,4 +6574,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B74C39-E305-437B-89E5-691639CCCAB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2f696df8-7461-455e-9bf1-ef56149775f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/extras/TestData_P4_C5_002.1.xlsx
+++ b/extras/TestData_P4_C5_002.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ablack/darwin/PregnancyIdentifier/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBBBE2-0275-014F-85A7-BEDFDF003B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A24F171-A19F-FE44-B9B9-FA7F10A050A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4220" windowWidth="34200" windowHeight="12660" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
+    <workbookView xWindow="0" yWindow="4220" windowWidth="34200" windowHeight="12660" activeTab="2" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1C072-644C-1A47-9B0F-C596ED60D337}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2796,7 +2796,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -5298,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA52673-6C55-0647-B7D5-2D52F4AD24C9}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7">
         <v>8</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="8" spans="1:13" customFormat="1">
       <c r="A8" s="3">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>34</v>
@@ -5777,7 +5777,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -6056,7 +6056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13512668-8276-415B-9D68-0F30BFBF3261}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -6398,12 +6398,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6545,15 +6542,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1BB2D99-B90A-4F2C-B88E-D2F6417F47F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B74C39-E305-437B-89E5-691639CCCAB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2f696df8-7461-455e-9bf1-ef56149775f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6577,17 +6585,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B74C39-E305-437B-89E5-691639CCCAB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1BB2D99-B90A-4F2C-B88E-D2F6417F47F2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2f696df8-7461-455e-9bf1-ef56149775f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/extras/TestData_P4_C5_002.1.xlsx
+++ b/extras/TestData_P4_C5_002.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ablack/darwin/PregnancyIdentifier/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A24F171-A19F-FE44-B9B9-FA7F10A050A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA57B7-B6BC-F742-8B9D-D49531BC5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4220" windowWidth="34200" windowHeight="12660" activeTab="2" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
+    <workbookView xWindow="300" yWindow="660" windowWidth="34200" windowHeight="12660" activeTab="5" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>person_id</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>condition_source_value</t>
+  </si>
+  <si>
+    <t>Gestation period, 39 weeks</t>
+  </si>
+  <si>
+    <t>Maternal postnatal 6 week examination</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -693,6 +699,12 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1C072-644C-1A47-9B0F-C596ED60D337}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1661,6 +1673,86 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>8532</v>
+      </c>
+      <c r="C32">
+        <v>1990</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>8532</v>
+      </c>
+      <c r="C33">
+        <v>1990</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>8532</v>
+      </c>
+      <c r="C34">
+        <v>1990</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>8532</v>
+      </c>
+      <c r="C35">
+        <v>1990</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2242,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E21BF-3345-8E43-B920-A246747D8F60}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="158" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A26" zoomScale="158" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2783,6 +2875,74 @@
         <v>12</v>
       </c>
     </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11">
+        <v>40909</v>
+      </c>
+      <c r="D32" s="11">
+        <v>45657</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33" s="11">
+        <v>40909</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45657</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>37</v>
+      </c>
+      <c r="C34" s="11">
+        <v>40909</v>
+      </c>
+      <c r="D34" s="11">
+        <v>45657</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="C35" s="11">
+        <v>40909</v>
+      </c>
+      <c r="D35" s="11">
+        <v>45657</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E17" xr:uid="{F00E21BF-3345-8E43-B920-A246747D8F60}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2794,10 +2954,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FAEDB-4FE7-8849-9EBA-5154A838789B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4399,6 +4559,188 @@
       </c>
       <c r="H59" s="27" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17">
+      <c r="A60" s="19">
+        <v>66</v>
+      </c>
+      <c r="B60" s="19">
+        <v>35</v>
+      </c>
+      <c r="C60" s="33">
+        <v>444098</v>
+      </c>
+      <c r="D60" s="34">
+        <v>45280</v>
+      </c>
+      <c r="E60" s="19">
+        <v>32817</v>
+      </c>
+      <c r="F60" s="19">
+        <v>0</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17">
+      <c r="A61" s="19">
+        <v>67</v>
+      </c>
+      <c r="B61" s="19">
+        <v>36</v>
+      </c>
+      <c r="C61" s="27">
+        <v>4014295</v>
+      </c>
+      <c r="D61" s="28">
+        <v>45280</v>
+      </c>
+      <c r="E61" s="19">
+        <v>32817</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17">
+      <c r="A62" s="3">
+        <v>68</v>
+      </c>
+      <c r="B62" s="3">
+        <v>36</v>
+      </c>
+      <c r="C62" s="27">
+        <v>444098</v>
+      </c>
+      <c r="D62" s="28">
+        <v>45280</v>
+      </c>
+      <c r="E62" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17">
+      <c r="A63" s="19">
+        <v>69</v>
+      </c>
+      <c r="B63" s="19">
+        <v>37</v>
+      </c>
+      <c r="C63" s="27">
+        <v>4014295</v>
+      </c>
+      <c r="D63" s="28">
+        <v>45280</v>
+      </c>
+      <c r="E63" s="19">
+        <v>32817</v>
+      </c>
+      <c r="F63" s="19">
+        <v>0</v>
+      </c>
+      <c r="G63" s="19">
+        <v>0</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17">
+      <c r="A64" s="19">
+        <v>70</v>
+      </c>
+      <c r="B64" s="19">
+        <v>37</v>
+      </c>
+      <c r="C64" s="13">
+        <v>435655</v>
+      </c>
+      <c r="D64" s="28">
+        <v>45273</v>
+      </c>
+      <c r="E64" s="19">
+        <v>32817</v>
+      </c>
+      <c r="F64" s="19">
+        <v>0</v>
+      </c>
+      <c r="G64" s="19">
+        <v>0</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17">
+      <c r="A65" s="3">
+        <v>71</v>
+      </c>
+      <c r="B65" s="3">
+        <v>38</v>
+      </c>
+      <c r="C65" s="27">
+        <v>444098</v>
+      </c>
+      <c r="D65" s="28">
+        <v>45280</v>
+      </c>
+      <c r="E65" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17">
+      <c r="A66" s="19">
+        <v>72</v>
+      </c>
+      <c r="B66" s="19">
+        <v>38</v>
+      </c>
+      <c r="C66" s="27">
+        <v>4014295</v>
+      </c>
+      <c r="D66" s="28">
+        <v>45266</v>
+      </c>
+      <c r="E66" s="19">
+        <v>32817</v>
+      </c>
+      <c r="F66" s="19">
+        <v>0</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4487,9 +4829,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A45E38-DECC-8A44-B5EF-C13538335272}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4618,10 +4962,31 @@
         <v>125</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4297233</v>
+      </c>
+      <c r="D7" s="28">
+        <v>45328</v>
+      </c>
+      <c r="E7" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" location="/concept/2211747" display="https://atlas.darwin-eu.org/ - /concept/2211747" xr:uid="{89C52AD5-15F6-6C4D-97F8-9BCE6319924F}"/>
     <hyperlink ref="F2" r:id="rId2" location="/concept/2211751" display="https://atlas.darwin-eu.org/ - /concept/2211751" xr:uid="{DBFBC6DA-9ECD-A143-B1B4-5FD1CAACC124}"/>
+    <hyperlink ref="F7" r:id="rId3" location="/concept/4297233" display="https://atlas.darwin-eu.org/ - /concept/4297233" xr:uid="{1F0988C5-C285-9D46-8CA0-FC2BDA22CA43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4631,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C4A2F6-3FDC-164F-B9B8-140301E5C5A8}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5258,10 +5623,10 @@
       <c r="B11">
         <v>21</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="36">
         <v>3036000</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="25">
         <v>45179</v>
       </c>
       <c r="G11">
@@ -5272,16 +5637,16 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="5" customFormat="1">
-      <c r="A12" s="3">
+      <c r="A12" s="35">
         <v>62</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="35">
         <v>34</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="36">
         <v>3036000</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="25">
         <v>45260</v>
       </c>
       <c r="E12" s="3"/>
@@ -6398,9 +6763,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6542,26 +6910,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B74C39-E305-437B-89E5-691639CCCAB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1BB2D99-B90A-4F2C-B88E-D2F6417F47F2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2f696df8-7461-455e-9bf1-ef56149775f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6585,9 +6942,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1BB2D99-B90A-4F2C-B88E-D2F6417F47F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B74C39-E305-437B-89E5-691639CCCAB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2f696df8-7461-455e-9bf1-ef56149775f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/extras/TestData_P4_C5_002.1.xlsx
+++ b/extras/TestData_P4_C5_002.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ablack/darwin/PregnancyIdentifier/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA57B7-B6BC-F742-8B9D-D49531BC5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235FF58-43C5-1448-9140-9BB346C29934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="660" windowWidth="34200" windowHeight="12660" activeTab="5" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
+    <workbookView xWindow="780" yWindow="6000" windowWidth="34200" windowHeight="12660" activeTab="5" xr2:uid="{2624F3FA-1896-E346-B17D-1AF481078F66}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="134">
   <si>
     <t>person_id</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t>Maternal postnatal 6 week examination</t>
+  </si>
+  <si>
+    <t>Pregnancy</t>
+  </si>
+  <si>
+    <t>Complication occurring during labor and delivery</t>
   </si>
 </sst>
 </file>
@@ -577,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -613,12 +619,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -705,6 +722,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1C072-644C-1A47-9B0F-C596ED60D337}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F35"/>
+      <selection activeCell="A36" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1753,6 +1773,46 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>8532</v>
+      </c>
+      <c r="C36">
+        <v>1990</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>8532</v>
+      </c>
+      <c r="C37">
+        <v>1990</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2334,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E21BF-3345-8E43-B920-A246747D8F60}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="158" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E35"/>
+      <selection activeCell="A36" sqref="A36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2943,6 +3003,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>39</v>
+      </c>
+      <c r="C36" s="11">
+        <v>40909</v>
+      </c>
+      <c r="D36" s="11">
+        <v>45657</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37" s="11">
+        <v>40909</v>
+      </c>
+      <c r="D37" s="11">
+        <v>45657</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E17" xr:uid="{F00E21BF-3345-8E43-B920-A246747D8F60}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2954,10 +3048,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FAEDB-4FE7-8849-9EBA-5154A838789B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:H66"/>
+      <selection activeCell="A67" sqref="A67:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4741,6 +4835,58 @@
       </c>
       <c r="H66" s="27" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17">
+      <c r="A67" s="3">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3">
+        <v>39</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4299535</v>
+      </c>
+      <c r="D67" s="10">
+        <v>43879</v>
+      </c>
+      <c r="E67" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17">
+      <c r="A68" s="3">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3">
+        <v>40</v>
+      </c>
+      <c r="C68" s="3">
+        <v>440795</v>
+      </c>
+      <c r="D68" s="28">
+        <v>43857</v>
+      </c>
+      <c r="E68" s="3">
+        <v>32817</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="37" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4994,10 +5140,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C4A2F6-3FDC-164F-B9B8-140301E5C5A8}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5653,6 +5799,237 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>39</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3012266</v>
+      </c>
+      <c r="D13" s="25">
+        <v>43879</v>
+      </c>
+      <c r="E13" s="26">
+        <v>43879.833333333336</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>32585</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>8511</v>
+      </c>
+      <c r="N13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3012266</v>
+      </c>
+      <c r="D14" s="25">
+        <v>44116</v>
+      </c>
+      <c r="E14" s="26">
+        <v>44116.833333333336</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>32585</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>8511</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3012266</v>
+      </c>
+      <c r="D15" s="25">
+        <v>43681</v>
+      </c>
+      <c r="E15" s="26">
+        <v>43681.833333333336</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>32585</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>8511</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3012266</v>
+      </c>
+      <c r="D16" s="25">
+        <v>43797</v>
+      </c>
+      <c r="E16" s="26">
+        <v>43797.833333333336</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <v>32585</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>8511</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4091201</v>
+      </c>
+      <c r="D17" s="25">
+        <v>43867</v>
+      </c>
+      <c r="E17" s="26">
+        <v>43867.833333333336</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17">
+        <v>32585</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3012266</v>
+      </c>
+      <c r="D18" s="25">
+        <v>43882</v>
+      </c>
+      <c r="E18" s="26">
+        <v>43882.833333333336</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>32585</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>42</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>8511</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
